--- a/Assets/ItemDataCreate/ItemDB.xlsx
+++ b/Assets/ItemDataCreate/ItemDB.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23e4e8173075e7b/デスクトップ/制作関連/Unity/30_Seconds2020334f1/Assets/Hama/Item/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23e4e8173075e7b/デスクトップ/制作関連/Unity/30_Seconds2020334f1/Assets/ItemDataCreate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A9E4EF49-62F4-46BA-8A02-AB714FB8C2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_00F9A40F2E3288BE9390F16CEF08ADC02DF00D88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD28D59F-2F6E-40EA-88C5-FDAB8BB09053}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TMm3DzUXz11M2m3yxOlYVtKpz6JuSUDwuquCWBDVcbU="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="134">
   <si>
     <t>ID</t>
   </si>
@@ -49,24 +54,36 @@
     <t>不思議な絵画だ…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/A_Painting_1.png</t>
+  </si>
+  <si>
     <t>A絵画(ブラックライト照射後)</t>
   </si>
   <si>
     <t>なんか浮かび上がってきた…！</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/A_Painting_2.png</t>
+  </si>
+  <si>
     <t>袖机(中に絵具)</t>
   </si>
   <si>
     <t>開きそうで開かない…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Sleeve_Desk_01.png</t>
+  </si>
+  <si>
     <t>袖机(空いた状態)</t>
   </si>
   <si>
     <t>中に何か入ってる…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Sleeve_Desk_02.png</t>
+  </si>
+  <si>
     <t>所有者なし</t>
   </si>
   <si>
@@ -76,6 +93,9 @@
     <t>これはなんだろう…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/</t>
+  </si>
+  <si>
     <t>先行プレイヤー</t>
   </si>
   <si>
@@ -88,21 +108,33 @@
     <t>後攻プレイヤー</t>
   </si>
   <si>
+    <t>Ａ出口ドア</t>
+  </si>
+  <si>
     <t>開かない…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomCommon/Gole_Door01.png</t>
+  </si>
+  <si>
     <t>Ａ出口ドア(鍵差込後)</t>
   </si>
   <si>
     <t>外に出られそうだ</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomCommon/Gole_Door04.png</t>
+  </si>
+  <si>
     <t>Ａ鍵差込口</t>
   </si>
   <si>
     <t>鍵穴がある</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomCommon/Key_Hole.png</t>
+  </si>
+  <si>
     <t>使用可</t>
   </si>
   <si>
@@ -118,18 +150,27 @@
     <t>弾いてみようか…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Upright_Piano.png</t>
+  </si>
+  <si>
     <t>シリンダー</t>
   </si>
   <si>
     <t>何かに使えるかな…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Cylinder.png</t>
+  </si>
+  <si>
     <t>ブラックライト</t>
   </si>
   <si>
     <t>ブラックライトだ</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Blacklight.png</t>
+  </si>
+  <si>
     <t>台座ボタン</t>
   </si>
   <si>
@@ -142,21 +183,33 @@
     <t>これは何だろう…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Pedestal_Off.png</t>
+  </si>
+  <si>
     <t>台座(物乗っけてる)</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Pedestal_On.png</t>
+  </si>
+  <si>
     <t>水槽(水有り)</t>
   </si>
   <si>
     <t>水が溜まっていて中が良く見えない</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Water_In_Tank.png</t>
+  </si>
+  <si>
     <t>水槽(水無し)</t>
   </si>
   <si>
     <t>水が抜けたようだ</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Tank.png</t>
+  </si>
+  <si>
     <t>水槽(シリンダー差込後)</t>
   </si>
   <si>
@@ -169,21 +222,36 @@
     <t>シリンダーが刺さっている</t>
   </si>
   <si>
+    <t>ゴール鍵Ａ</t>
+  </si>
+  <si>
     <t>どこかで使えそうだ</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Key_GoalA.png</t>
+  </si>
+  <si>
     <t>Ｂ絵画</t>
   </si>
   <si>
     <t>男女の絵画だ</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/B_Painting_1.png</t>
+  </si>
+  <si>
     <t>謎１ヒント</t>
   </si>
   <si>
     <t>何かの暗号だろうか…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/Memo_Icon.png</t>
+  </si>
+  <si>
+    <t>Ｂ出口ドア</t>
+  </si>
+  <si>
     <t>Ｂ出口ドア(鍵差込後)</t>
   </si>
   <si>
@@ -196,86 +264,75 @@
     <t>もう意味がないようだ…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/</t>
+  </si>
+  <si>
     <t>花瓶</t>
   </si>
   <si>
     <t>花が生けてある</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/vase_white.png</t>
+  </si>
+  <si>
     <t>花瓶(染色後)</t>
   </si>
   <si>
     <t>別の色に染まったようだ…</t>
   </si>
   <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/vase_purple.png</t>
+  </si>
+  <si>
+    <t>ゴール鍵Ｂ</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/Key_GoalB.png</t>
+  </si>
+  <si>
     <t>青ランプ(消灯)</t>
   </si>
   <si>
+    <t>電気が通っていないみたいだ…</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/lamp_green_off.png</t>
+  </si>
+  <si>
     <t>青ランプ(点灯)</t>
   </si>
   <si>
-    <t>水抜きスイッチ</t>
+    <t>青いランプがついている</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/lamp_green_on.png</t>
+  </si>
+  <si>
+    <t>水抜きスイッチ（オフ）</t>
   </si>
   <si>
     <t>何のスイッチだろう…</t>
   </si>
   <si>
-    <t>ランプヒント(紙)</t>
-  </si>
-  <si>
-    <t>黄ランプ(消灯)</t>
-  </si>
-  <si>
-    <t>黄ランプ(点灯)</t>
-  </si>
-  <si>
-    <t>りんご</t>
-  </si>
-  <si>
-    <t>作り物のりんごだ</t>
-  </si>
-  <si>
-    <t>オルゴール(シリンダーなし)</t>
-  </si>
-  <si>
-    <t>オルゴールがある　音は鳴らないみたいだ</t>
-  </si>
-  <si>
-    <t>オルゴール(シリンダーあり)</t>
-  </si>
-  <si>
-    <t>綺麗な音だ</t>
-  </si>
-  <si>
-    <t>赤ランプ(消灯)</t>
-  </si>
-  <si>
-    <t>赤ランプ(点灯)</t>
-  </si>
-  <si>
-    <t>EnableTake</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>InteractFlag</t>
-    <phoneticPr fontId="5"/>
+    <t>Assets/MainGame/Resources/Item/RoomB/switch_01.png</t>
   </si>
   <si>
     <t>絵具</t>
-    <rPh sb="0" eb="2">
-      <t>エノグ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>紫のチューリップが輝いている</t>
   </si>
   <si>
     <t>美しさを感じる紫色の塗料</t>
-    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomA/Paint.png</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
       <t>B</t>
     </r>
     <r>
@@ -293,7 +350,6 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -312,179 +368,115 @@
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ゴール鍵Ｂ</t>
-    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>紫のチューリップが輝いている</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/B_Painting_2.png</t>
+  </si>
+  <si>
+    <t>ランプヒント(紙)</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/Lamp_Hint.png</t>
+  </si>
+  <si>
+    <t>黄ランプ(消灯)</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/lamp_yellow_off.png</t>
+  </si>
+  <si>
+    <t>黄ランプ(点灯)</t>
+  </si>
+  <si>
+    <t>黄色いランプがついている</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/lamp_yellow_on.png</t>
+  </si>
+  <si>
+    <t>りんご</t>
+  </si>
+  <si>
+    <t>作り物のりんごだ</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/Apple.png</t>
+  </si>
+  <si>
+    <t>オルゴール(シリンダーなし)</t>
+  </si>
+  <si>
+    <t>オルゴールがある　音は鳴らないみたいだ</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/Music_Box_Off.png</t>
+  </si>
+  <si>
+    <t>オルゴール(シリンダーあり)</t>
+  </si>
+  <si>
+    <t>綺麗な音だ</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/Music_Box_On.png</t>
+  </si>
+  <si>
+    <t>赤ランプ(消灯)</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/lamp_red_off.png</t>
+  </si>
+  <si>
+    <t>赤ランプ(点灯)</t>
+  </si>
+  <si>
+    <t>赤いランプがついている</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/lamp_red_on.png</t>
+  </si>
+  <si>
+    <t>宝箱（クローズ）</t>
+  </si>
+  <si>
+    <t>箱を開けようとしたが開かない</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomCommon/TreasureChest_Close.png</t>
   </si>
   <si>
     <t>宝箱（オープン）</t>
-    <rPh sb="0" eb="2">
-      <t>タカラバコ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>ゴール鍵Ａ</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>宝箱（クローズ）</t>
-    <rPh sb="0" eb="2">
-      <t>タカラバコ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomCommon/TreasureChest_Open.png</t>
+  </si>
+  <si>
+    <t>もう中には何もない</t>
+  </si>
+  <si>
+    <t>水抜きスイッチ（オン）</t>
+  </si>
+  <si>
+    <t>水を抜くためのスイッチだ　もう用はない</t>
+  </si>
+  <si>
+    <t>Assets/MainGame/Resources/Item/RoomB/switch_02.png</t>
   </si>
   <si>
     <t>ダミー</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Ａ出口ドア</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Ｂ出口ドア</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/A_Painting_1.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/A_Painting_2.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Sleeve_Desk_01.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Sleeve_Desk_02.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomCommon/Gole_Door01.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomCommon/Gole_Door04.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomCommon/Key_Hole.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Upright_Piano.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Cylinder.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Blacklight.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Pedestal_Off.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Pedestal_On.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Water_In_Tank.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Tank.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Key_GoalA.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/Key_GoalB.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomA/Paint.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomCommon/TreasureChest_Close.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomCommon/TreasureChest_Open.png</t>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/lamp_green_off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/lamp_green_on.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/lamp_yellow_on.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/lamp_yellow_off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/B_Painting_2.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/Lamp_Hint.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/Apple.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/lamp_red_off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/lamp_red_on.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/Music_Box_Off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/Music_Box_On.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/vase_white.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/vase_purple.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/B_Painting_1.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/switch_01.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/MainGame/Resources/Item/RoomB/Memo_Icon.png</t>
-    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -495,12 +487,13 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -508,11 +501,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <strike/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="6"/>
@@ -521,50 +520,8 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,8 +534,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7F7F7F"/>
+        <bgColor rgb="FF7F7F7F"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -602,6 +565,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -618,34 +601,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -661,6 +638,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -866,20 +847,22 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="43.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="72.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="26" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,198 +878,198 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
         <v>0</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
         <v>0</v>
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>11</v>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
+        <v>14</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
         <v>0</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H5" s="4">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
         <v>0</v>
       </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
       <c r="G7" s="2"/>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>2</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>88</v>
+      <c r="B8" s="5" t="s">
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>23</v>
+      <c r="B9" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
@@ -1094,857 +1077,878 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>25</v>
+      <c r="B10" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+        <v>34</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3">
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>1</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
+        <v>40</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>0</v>
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
+        <v>43</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
         <v>0</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>34</v>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
+        <v>46</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1">
+      <c r="A15" s="9">
         <v>13</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="5">
+      <c r="B15" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="4">
         <v>1</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="I15" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>0</v>
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="4">
+      <c r="D17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>0</v>
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>41</v>
+      <c r="B18" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="4">
-        <v>0</v>
-      </c>
-      <c r="F18" s="4">
+        <v>56</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
         <v>0</v>
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E20" s="4">
-        <v>0</v>
-      </c>
-      <c r="F20" s="4">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="4">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>0</v>
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="4">
+        <v>64</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="18" t="s">
-        <v>85</v>
+      <c r="B23" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="4">
+        <v>66</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>0</v>
       </c>
       <c r="G23" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>50</v>
+      <c r="B24" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="4">
+        <v>69</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>0</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
+        <v>72</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
         <v>0</v>
       </c>
       <c r="G25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>89</v>
+      <c r="B26" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="4">
-        <v>0</v>
-      </c>
-      <c r="F26" s="4">
+        <v>28</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>0</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>54</v>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" s="4">
-        <v>0</v>
-      </c>
-      <c r="F27" s="4">
+        <v>31</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>0</v>
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="E28" s="4">
-        <v>0</v>
-      </c>
-      <c r="F28" s="4">
+        <v>34</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+      <c r="F28" s="3">
         <v>0</v>
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>56</v>
+      <c r="B29" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
+        <v>78</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="4">
-        <v>0</v>
-      </c>
-      <c r="F30" s="4">
+        <v>81</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
         <v>0</v>
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
+        <v>84</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>83</v>
+      <c r="B32" s="12" t="s">
+        <v>86</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E32" s="4">
-        <v>0</v>
-      </c>
-      <c r="F32" s="4">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="B33" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="B34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+      <c r="F34" s="3">
         <v>0</v>
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>64</v>
+      <c r="B35" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
+        <v>95</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>0</v>
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="B36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
         <v>0</v>
       </c>
       <c r="G36" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="13" t="s">
-        <v>82</v>
+      <c r="B37" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
+        <v>101</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
         <v>0</v>
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>66</v>
+      <c r="B38" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
+        <v>72</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+      <c r="F38" s="3">
         <v>0</v>
       </c>
       <c r="G38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
+      <c r="B39" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+      <c r="F39" s="3">
         <v>0</v>
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="E40" s="4">
-        <v>0</v>
-      </c>
-      <c r="F40" s="4">
+      <c r="B40" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
         <v>0</v>
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>69</v>
+      <c r="B41" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
+        <v>111</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
+        <v>114</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
         <v>0</v>
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
+        <v>117</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
+        <v>119</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
+        <v>121</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="4">
-        <v>0</v>
-      </c>
-      <c r="F46" s="4">
+      <c r="B46" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
         <v>0</v>
       </c>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="4">
-        <v>0</v>
-      </c>
-      <c r="F47" s="4">
+      <c r="B47" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
         <v>0</v>
       </c>
       <c r="G47" s="2"/>
     </row>
-    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="4">
-        <v>0</v>
-      </c>
-      <c r="F48" s="4">
+      <c r="B48" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>0</v>
       </c>
       <c r="G48" s="2"/>
     </row>
-    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="17" t="s">
-        <v>87</v>
+      <c r="B49" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="9"/>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <v>0</v>
       </c>
       <c r="G49" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>